--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="934">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2820,6 +2820,18 @@
   </si>
   <si>
     <t>//input[starts-with(@aria-label,'Cellular Phone #')]</t>
+  </si>
+  <si>
+    <t>Cont_MoiValidation</t>
+  </si>
+  <si>
+    <t>//button[.='MOI Validation']</t>
+  </si>
+  <si>
+    <t>Acc_validation_Name</t>
+  </si>
+  <si>
+    <t>//a[@title='Installed Assets']</t>
   </si>
 </sst>
 </file>
@@ -32389,9 +32401,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G966"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35034,7 +35046,7 @@
       <c r="A167" t="s">
         <v>928</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>927</v>
       </c>
       <c r="G167" s="4" t="str">
@@ -35043,9 +35055,15 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>930</v>
+      </c>
+      <c r="B168" t="s">
+        <v>931</v>
+      </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Cont_MoiValidation");</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -39882,7 +39900,7 @@
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
     <cfRule type="duplicateValues" dxfId="941" priority="386"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A168:B1048576 A167">
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B1048576">
     <cfRule type="duplicateValues" dxfId="940" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
@@ -39951,19 +39969,19 @@
   <conditionalFormatting sqref="A31:B35">
     <cfRule type="duplicateValues" dxfId="918" priority="805"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="917" priority="828"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="916" priority="831"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="915" priority="834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
     <cfRule type="duplicateValues" dxfId="914" priority="837"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B46:B49 B66:B67 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="913" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
@@ -39987,7 +40005,7 @@
   <conditionalFormatting sqref="A65">
     <cfRule type="duplicateValues" dxfId="906" priority="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B20:B26 B28:B67 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="905" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
@@ -40059,7 +40077,7 @@
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G966">
     <cfRule type="duplicateValues" dxfId="882" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B17 B20:B26 B28:B99 B168:B1048576">
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="881" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
@@ -40074,7 +40092,7 @@
   <conditionalFormatting sqref="A100">
     <cfRule type="duplicateValues" dxfId="877" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B17 B20:B26 B28:B100 B168:B1048576">
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="876" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
@@ -40257,10 +40275,10 @@
   <conditionalFormatting sqref="A1:A126 A166:A1048576">
     <cfRule type="duplicateValues" dxfId="816" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A1:B126 A168:B1048576 A167">
+  <conditionalFormatting sqref="A1:B126 A166:B1048576">
     <cfRule type="duplicateValues" dxfId="815" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A168:B1048576 A167">
+  <conditionalFormatting sqref="A166:B1048576">
     <cfRule type="duplicateValues" dxfId="814" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
@@ -40284,7 +40302,7 @@
   <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="807" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B130 B168:B1048576">
+  <conditionalFormatting sqref="B1:B130 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="806" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
@@ -40311,10 +40329,10 @@
   <conditionalFormatting sqref="A131:A136">
     <cfRule type="duplicateValues" dxfId="798" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A1:B136 A168:B1048576 A167">
+  <conditionalFormatting sqref="A1:B136 A166:B1048576">
     <cfRule type="duplicateValues" dxfId="797" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B136 B168:B1048576">
+  <conditionalFormatting sqref="B1:B136 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="796" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A136 A166:A1048576">
@@ -40344,7 +40362,7 @@
   <conditionalFormatting sqref="A137:A145">
     <cfRule type="duplicateValues" dxfId="787" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B145 B168:B1048576">
+  <conditionalFormatting sqref="B1:B145 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="786" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
@@ -40447,10 +40465,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42359,9 +42377,15 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>932</v>
+      </c>
+      <c r="B124" t="s">
+        <v>933</v>
+      </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Acc_validation_Name", getdata("Acc_validation_Name"));</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -32403,7 +32403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -13494,7 +13494,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -32401,9 +32401,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47722,7 +47722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:B23"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58365,7 +58365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="942">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2832,6 +2832,30 @@
   </si>
   <si>
     <t>//a[@title='Installed Assets']</t>
+  </si>
+  <si>
+    <t>Manage_Add_On</t>
+  </si>
+  <si>
+    <t>//span[text()='Manage Add Ons']</t>
+  </si>
+  <si>
+    <t>//button[@title='Promotion Upgrades:Query']</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Promotion Name']</t>
+  </si>
+  <si>
+    <t>//button[@title='Promotion Upgrades:Go']</t>
+  </si>
+  <si>
+    <t>Promotion_Query</t>
+  </si>
+  <si>
+    <t>Promotion_Go</t>
+  </si>
+  <si>
+    <t>Promotion_name</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +3023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3041,11 +3065,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1049">
+  <dxfs count="1063">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9287,6 +9324,146 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11598,16 +11775,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13494,9 +13661,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19968,283 +20135,283 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1048" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1047" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1046" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1045" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1044" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1043" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1042" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1041" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1040" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1039" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1038" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1037" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1036" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1035" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1034" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1033" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1032" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1031" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1030" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1029" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1028" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1027" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1026" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1025" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1024" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1023" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1022" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1021" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1020" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1019" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1018" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1017" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1016" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1015" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1014" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1013" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1012" priority="2094"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="2094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1011" priority="2095"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="2095"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1010" priority="2096"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="2096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1009" priority="2098"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="2098"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1008" priority="2151"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="2151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1007" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="2152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1006" priority="2153"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="2153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1005" priority="2154"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="2154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1004" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1003" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B62">
-    <cfRule type="duplicateValues" dxfId="1002" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B62">
-    <cfRule type="duplicateValues" dxfId="1001" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="1000" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="999" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="998" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="997" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="996" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="995" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="994" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="993" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="992" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="991" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="990" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="989" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="988" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="987" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="986" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="985" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="984" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="983" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="982" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="981" priority="2418"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="2418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="980" priority="2419"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="2419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B71">
-    <cfRule type="duplicateValues" dxfId="979" priority="2420"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="2420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B71">
-    <cfRule type="duplicateValues" dxfId="978" priority="2421"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="2421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="977" priority="2448"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="2448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="976" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="975" priority="2462"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="2462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="974" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="2469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="973" priority="2471"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="2471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="972" priority="2477"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="2477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="971" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="970" priority="2484"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="2484"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="969" priority="2487"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="2487"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576">
-    <cfRule type="duplicateValues" dxfId="968" priority="2490"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="2490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B62">
-    <cfRule type="duplicateValues" dxfId="967" priority="2492"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="2492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B71 A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="966" priority="2495"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="965" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="964" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="963" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="962" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="961" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="960" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="959" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="958" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="957" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="956" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -26298,16 +26465,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32345,7 +32512,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32390,7 +32557,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32399,11 +32566,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G966"/>
+  <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34534,7 +34701,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="str">
-        <f t="shared" ref="G132:G195" si="2">IF(A132&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G132:G194" si="2">IF(A132&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("SMS");</v>
       </c>
     </row>
@@ -35067,21 +35234,39 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>935</v>
+      </c>
       <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Manage_Add_On");</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>939</v>
+      </c>
+      <c r="B170" t="s">
+        <v>936</v>
+      </c>
       <c r="G170" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Promotion_Query");</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>940</v>
+      </c>
+      <c r="B171" t="s">
+        <v>938</v>
+      </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Promotion_Go");</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -35224,13 +35409,13 @@
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G195:G258" si="3">IF(A195&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A195&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G196" s="4" t="str">
-        <f t="shared" ref="G196:G259" si="3">IF(A196&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A196&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -35608,13 +35793,13 @@
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G259:G322" si="4">IF(A259&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A259&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" s="4" t="str">
-        <f t="shared" ref="G260:G323" si="4">IF(A260&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A260&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -35992,13 +36177,13 @@
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G323" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G323:G386" si="5">IF(A323&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A323&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G324" s="4" t="str">
-        <f t="shared" ref="G324:G387" si="5">IF(A324&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A324&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -36376,13 +36561,13 @@
     </row>
     <row r="387" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G387" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G387:G450" si="6">IF(A387&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A387&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G388" s="4" t="str">
-        <f t="shared" ref="G388:G451" si="6">IF(A388&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A388&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36760,13 +36945,13 @@
     </row>
     <row r="451" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G451" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G451:G514" si="7">IF(A451&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A451&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="452" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G452" s="4" t="str">
-        <f t="shared" ref="G452:G515" si="7">IF(A452&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A452&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -37144,13 +37329,13 @@
     </row>
     <row r="515" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G515" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G515:G578" si="8">IF(A515&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A515&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="516" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G516" s="4" t="str">
-        <f t="shared" ref="G516:G579" si="8">IF(A516&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A516&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -37528,13 +37713,13 @@
     </row>
     <row r="579" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G579" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G579:G642" si="9">IF(A579&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A579&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="580" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G580" s="4" t="str">
-        <f t="shared" ref="G580:G643" si="9">IF(A580&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A580&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -37912,13 +38097,13 @@
     </row>
     <row r="643" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G643" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G643:G706" si="10">IF(A643&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A643&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="644" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G644" s="4" t="str">
-        <f t="shared" ref="G644:G707" si="10">IF(A644&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A644&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -38296,13 +38481,13 @@
     </row>
     <row r="707" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G707" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G707:G770" si="11">IF(A707&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A707&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="708" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G708" s="4" t="str">
-        <f t="shared" ref="G708:G771" si="11">IF(A708&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A708&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -38680,13 +38865,13 @@
     </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G771:G834" si="12">IF(A771&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A771&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="772" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G772" s="4" t="str">
-        <f t="shared" ref="G772:G835" si="12">IF(A772&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A772&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -39064,13 +39249,13 @@
     </row>
     <row r="835" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G835" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G835:G898" si="13">IF(A835&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A835&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="836" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G836" s="4" t="str">
-        <f t="shared" ref="G836:G899" si="13">IF(A836&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A836&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -39448,13 +39633,13 @@
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G899" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G899:G962" si="14">IF(A899&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A899&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="900" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G900" s="4" t="str">
-        <f t="shared" ref="G900:G963" si="14">IF(A900&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A900&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -39832,13 +40017,13 @@
     </row>
     <row r="963" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G963" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G963:G965" si="15">IF(A963&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A963&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="964" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G964" s="4" t="str">
-        <f t="shared" ref="G964:G966" si="15">IF(A964&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A964&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -39848,612 +40033,606 @@
         <v/>
       </c>
     </row>
-    <row r="966" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G966" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="955" priority="429"/>
+  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="969" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="954" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="953" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="952" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="951" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="950" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="949" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="948" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="947" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="946" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="945" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="944" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="943" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="942" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="941" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="940" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="954" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="939" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="938" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="937" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="936" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="935" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="934" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="933" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="932" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="931" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="930" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="929" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="928" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="927" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="926" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="925" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="924" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="923" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="922" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="921" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="920" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="919" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="918" priority="805"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="917" priority="828"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="916" priority="831"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="915" priority="834"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="805"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="931" priority="828"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="930" priority="831"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="929" priority="834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="914" priority="837"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="913" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="837"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="927" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="912" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="911" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="910" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="909" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="908" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="907" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="906" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="905" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="919" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="904" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="903" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="902" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="901" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="915" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="900" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="1285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="899" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="1288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="898" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="897" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="896" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="895" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="894" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="893" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="892" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="891" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="890" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="889" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="888" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="887" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="886" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="885" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="884" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="883" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G966">
-    <cfRule type="duplicateValues" dxfId="882" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="881" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="896" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="880" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="879" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="878" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="877" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="876" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="891" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="875" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="874" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="873" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="872" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="871" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="870" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="869" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="868" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="867" priority="1833"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="1833"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="866" priority="1835"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="1835"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="865" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="864" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="863" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="862" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="861" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="860" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="859" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="858" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="857" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="856" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="855" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="854" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="853" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="852" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="851" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="850" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="849" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="848" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="847" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="846" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="845" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="844" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="843" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="842" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="841" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="840" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="839" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="838" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="837" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="836" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="835" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="834" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="833" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="832" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="831" priority="2102"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="2102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="830" priority="2103"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="2103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="829" priority="2104"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="2104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="828" priority="2109"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="2109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="827" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="826" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="825" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="824" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="823" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="822" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="821" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="820" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="819" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="818" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="817" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="816" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="815" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="814" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="831" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="830" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="829" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="813" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="812" priority="2260"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="2260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="811" priority="2262"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="2262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="810" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="809" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="808" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="823" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="807" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="806" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="821" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="805" priority="2398"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="2398"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="804" priority="2399"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="803" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="2399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="818" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="802" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="801" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="800" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="799" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="798" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="797" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="796" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="795" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="812" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="811" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="810" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="794" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="793" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="792" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="791" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="790" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="789" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="788" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="787" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="786" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="801" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="785" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="784" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="783" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="782" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="781" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="780" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="779" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="778" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="777" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="776" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="775" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="774" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="773" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="772" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="771" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="770" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="769" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="768" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="767" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="766" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="765" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="764" priority="2578"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="2578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="763" priority="2602"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="2602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="762" priority="2603"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="2603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:G165">
-    <cfRule type="duplicateValues" dxfId="761" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="760" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="759" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="758" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="757" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="756" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
+    <cfRule type="duplicateValues" dxfId="0" priority="2690"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40466,9 +40645,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42389,9 +42568,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>941</v>
+      </c>
+      <c r="B125" t="s">
+        <v>937</v>
+      </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Promotion_name", getdata("Promotion_name"));</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -47286,355 +47471,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="755" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="754" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="753" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="752" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="751" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="750" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="749" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="748" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="747" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="746" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="745" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="744" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="743" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="742" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="741" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="740" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="739" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="738" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="737" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="736" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="735" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="734" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="733" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="732" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="731" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="730" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="729" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="728" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="727" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="726" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="725" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="724" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="723" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="722" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="721" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="720" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="719" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="718" priority="2017"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="2031"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="717" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="716" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="715" priority="2181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A1:B98">
-    <cfRule type="duplicateValues" dxfId="714" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="2195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B98 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="729" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="713" priority="2186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="712" priority="2189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="711" priority="2193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="710" priority="2196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B40">
-    <cfRule type="duplicateValues" dxfId="709" priority="2199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576">
-    <cfRule type="duplicateValues" dxfId="708" priority="2202"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="2200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="727" priority="2203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B16 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="726" priority="2207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B19 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="725" priority="2210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B40 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="724" priority="2213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="723" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="707" priority="2204"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="2218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="706" priority="2208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B93 B1:B88 B98">
-    <cfRule type="duplicateValues" dxfId="705" priority="2211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B93 B1:B91 B98">
-    <cfRule type="duplicateValues" dxfId="704" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="2222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B88 B98 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="720" priority="2225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B91 B98 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="719" priority="2230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A98">
-    <cfRule type="duplicateValues" dxfId="703" priority="2221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576">
-    <cfRule type="duplicateValues" dxfId="702" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="2235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="717" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="701" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="700" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="699" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A102">
-    <cfRule type="duplicateValues" dxfId="698" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="697" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="696" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="695" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A103">
-    <cfRule type="duplicateValues" dxfId="694" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B103">
-    <cfRule type="duplicateValues" dxfId="693" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A1:B103">
-    <cfRule type="duplicateValues" dxfId="692" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B103 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="708" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B103 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="707" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="691" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="690" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="689" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="688" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="687" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="686" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B104">
-    <cfRule type="duplicateValues" dxfId="685" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B104 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="700" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="684" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="683" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="682" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="681" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="680" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="679" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="678" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B111">
-    <cfRule type="duplicateValues" dxfId="677" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B111 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="692" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="676" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="675" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="674" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="673" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="672" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="671" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="670" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="669" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="668" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="667" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="666" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="665" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="664" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="663" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="662" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="661" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="660" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="659" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="658" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="657" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="656" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="655" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="654" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="653" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="652" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="651" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="650" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="649" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="648" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="647" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="646" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="645" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A1048576">
-    <cfRule type="duplicateValues" dxfId="644" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="643" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="657" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="duplicateValues" dxfId="656" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="655" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="654" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="653" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="652" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="651" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="650" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="649" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="648" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="647" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="646" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="645" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="644" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="643" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="duplicateValues" dxfId="642" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="641" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="640" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="639" priority="1"/>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="641" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="640" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47700,16 +47927,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="638" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="637" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="636" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="635" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47721,8 +47948,8 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53332,60 +53559,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="634" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="633" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="632" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="631" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="630" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="629" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="628" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="627" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="626" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="625" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="624" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="623" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="622" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B19 A24:B1048576">
-    <cfRule type="duplicateValues" dxfId="621" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="620" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="619" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="618" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="617" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="616" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="615" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -54323,489 +54550,489 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="614" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="613" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="611" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="610" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="608" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="607" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="605" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="604" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="602" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="595" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="594" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="593" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="592" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="591" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="590" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="589" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="588" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="587" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="586" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="585" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="584" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B10">
-    <cfRule type="duplicateValues" dxfId="583" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="582" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="581" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="580" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="579" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="577" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="576" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="575" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="574" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="573" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="572" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B15">
-    <cfRule type="duplicateValues" dxfId="571" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="570" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="569" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="568" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="567" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="566" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="565" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="564" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="563" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="560" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="559" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="558" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="557" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="556" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="555" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="554" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="553" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="552" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="551" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="550" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="549" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="548" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="547" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="546" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="545" priority="701"/>
-    <cfRule type="duplicateValues" dxfId="544" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="701"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="543" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="542" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="541" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="540" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="539" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="538" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="536" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="535" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="534" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="533" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="532" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="530" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="529" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="528" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="526" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="525" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="524" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="523" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="522" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="521" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="520" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="519" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="518" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="517" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="516" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="515" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="514" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="513" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="512" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="511" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="509" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="508" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="507" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="506" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="505" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="504" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="503" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="502" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="501" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="500" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="499" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="498" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="497" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="496" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="495" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="494" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="492" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="491" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="490" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="489" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="488" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="487" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="486" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="485" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="484" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="483" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="482" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="481" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="480" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="479" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="478" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="477" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="476" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="475" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="474" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B35">
-    <cfRule type="duplicateValues" dxfId="473" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="472" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="471" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="470" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="469" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="468" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="467" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="466" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="465" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="464" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="463" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="462" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="461" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1:A43">
-    <cfRule type="duplicateValues" dxfId="460" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="459" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="458" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="457" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="456" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="455" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="454" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="453" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B47">
-    <cfRule type="duplicateValues" dxfId="452" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="451" priority="2240"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="2240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="450" priority="2243"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="2243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="449" priority="2244"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="448" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="447" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B49">
-    <cfRule type="duplicateValues" dxfId="446" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="445" priority="2443"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="2443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="444" priority="2449"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="2449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="443" priority="2451"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="2451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="442" priority="2457"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="2457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="440" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="439" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="438" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="437" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="436" priority="2608"/>
-    <cfRule type="duplicateValues" dxfId="435" priority="2609"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="2608"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="2609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="434" priority="2610"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="2610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="433" priority="2611"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="2611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="432" priority="2615"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="2615"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57138,1220 +57365,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -58365,7 +58592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64314,7 +64541,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64402,7 +64629,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -2246,9 +2246,6 @@
     <t>Activity_timeline_link</t>
   </si>
   <si>
-    <t>//span[@class="vfqa-360view-timeline-desc-title"]//following::a[1]</t>
-  </si>
-  <si>
     <t>Account_summary1</t>
   </si>
   <si>
@@ -2856,6 +2853,9 @@
   </si>
   <si>
     <t>Promotion_name</t>
+  </si>
+  <si>
+    <t>//div[@title="Show All Activity"]</t>
   </si>
 </sst>
 </file>
@@ -3074,16 +3074,6 @@
   </cellStyles>
   <dxfs count="1063">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10561,6 +10551,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13661,9 +13661,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14556,7 +14556,7 @@
         <v>732</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -14603,8 +14603,8 @@
       <c r="A58" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>738</v>
+      <c r="B58" s="13" t="s">
+        <v>941</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -14617,10 +14617,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14633,10 +14633,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14649,10 +14649,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14665,10 +14665,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>746</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14681,10 +14681,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -14697,10 +14697,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>750</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -14713,10 +14713,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -14729,10 +14729,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>754</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -14745,10 +14745,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>755</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>756</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -14761,10 +14761,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>757</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>758</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14777,10 +14777,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14793,10 +14793,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14809,10 +14809,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14828,7 +14828,7 @@
         <v>458</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14841,10 +14841,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>854</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>855</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14857,10 +14857,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>914</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>915</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -20272,25 +20272,25 @@
   <conditionalFormatting sqref="A49:A62">
     <cfRule type="duplicateValues" dxfId="1017" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B62">
+  <conditionalFormatting sqref="A49:B57 A59:B62 A58">
     <cfRule type="duplicateValues" dxfId="1016" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B62">
+  <conditionalFormatting sqref="A49:B57 A59:B62 A58">
     <cfRule type="duplicateValues" dxfId="1015" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B62">
+  <conditionalFormatting sqref="B49:B57 B59:B62">
     <cfRule type="duplicateValues" dxfId="1014" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B62">
+  <conditionalFormatting sqref="B49:B57 B59:B62">
     <cfRule type="duplicateValues" dxfId="1013" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B62">
+  <conditionalFormatting sqref="B49:B57 B59:B62">
     <cfRule type="duplicateValues" dxfId="1012" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
     <cfRule type="duplicateValues" dxfId="1011" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B62">
+  <conditionalFormatting sqref="B49:B57 B59:B62">
     <cfRule type="duplicateValues" dxfId="1010" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
@@ -20377,10 +20377,10 @@
   <conditionalFormatting sqref="A75:A1048576">
     <cfRule type="duplicateValues" dxfId="982" priority="2490"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B1048576 A1:B62">
+  <conditionalFormatting sqref="A75:B1048576 A1:B57 A59:B62 A58">
     <cfRule type="duplicateValues" dxfId="981" priority="2492"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B71 A75:B1048576">
+  <conditionalFormatting sqref="A1:B57 A75:B1048576 A59:B71 A58">
     <cfRule type="duplicateValues" dxfId="980" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
@@ -26465,16 +26465,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32512,7 +32512,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32557,7 +32557,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32568,9 +32568,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33409,10 +33409,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -34627,10 +34627,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>763</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>764</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -34643,10 +34643,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="B129" s="17" t="s">
         <v>785</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>786</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -34659,10 +34659,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B130" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>788</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -34675,10 +34675,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>793</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>794</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -34787,10 +34787,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>814</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>815</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -34803,10 +34803,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" s="17" t="s">
         <v>816</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>817</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -34822,7 +34822,7 @@
         <v>154</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -34838,7 +34838,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -34851,10 +34851,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B142" s="17" t="s">
         <v>820</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>821</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -34867,10 +34867,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B143" s="17" t="s">
         <v>822</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>823</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -34883,10 +34883,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="B144" s="17" t="s">
         <v>824</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>825</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -34899,10 +34899,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="B145" s="17" t="s">
         <v>826</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>827</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -34915,10 +34915,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B146" s="17" t="s">
         <v>838</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>839</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -34931,10 +34931,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="B147" s="17" t="s">
         <v>840</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>841</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -34947,10 +34947,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="B148" s="17" t="s">
         <v>842</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>843</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -34963,10 +34963,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B149" s="17" t="s">
         <v>844</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>845</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -34979,10 +34979,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B150" s="17" t="s">
         <v>846</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>847</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -34995,10 +34995,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="B151" s="17" t="s">
         <v>848</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>849</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -35011,10 +35011,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="B152" s="17" t="s">
         <v>850</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>851</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -35027,10 +35027,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="B153" t="s">
         <v>856</v>
-      </c>
-      <c r="B153" t="s">
-        <v>857</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -35043,10 +35043,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="B154" s="20" t="s">
         <v>858</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>859</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -35059,10 +35059,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="B155" s="20" t="s">
         <v>860</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>861</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -35075,10 +35075,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="B156" s="20" t="s">
         <v>862</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>863</v>
       </c>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -35091,10 +35091,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="B157" s="20" t="s">
         <v>864</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>865</v>
       </c>
       <c r="G157" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35103,10 +35103,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="B158" t="s">
         <v>866</v>
-      </c>
-      <c r="B158" t="s">
-        <v>867</v>
       </c>
       <c r="G158" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35115,10 +35115,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G159" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35127,10 +35127,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>868</v>
+      </c>
+      <c r="B160" t="s">
         <v>869</v>
-      </c>
-      <c r="B160" t="s">
-        <v>870</v>
       </c>
       <c r="G160" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35139,10 +35139,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>870</v>
+      </c>
+      <c r="B161" t="s">
         <v>871</v>
-      </c>
-      <c r="B161" t="s">
-        <v>872</v>
       </c>
       <c r="G161" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35151,10 +35151,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>872</v>
+      </c>
+      <c r="B162" t="s">
         <v>873</v>
-      </c>
-      <c r="B162" t="s">
-        <v>874</v>
       </c>
       <c r="G162" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35163,10 +35163,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>917</v>
+      </c>
+      <c r="B163" t="s">
         <v>918</v>
-      </c>
-      <c r="B163" t="s">
-        <v>919</v>
       </c>
       <c r="G163" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35175,10 +35175,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>919</v>
+      </c>
+      <c r="B164" t="s">
         <v>920</v>
-      </c>
-      <c r="B164" t="s">
-        <v>921</v>
       </c>
       <c r="G164" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35187,10 +35187,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>921</v>
+      </c>
+      <c r="B165" t="s">
         <v>922</v>
-      </c>
-      <c r="B165" t="s">
-        <v>923</v>
       </c>
       <c r="G165" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35199,7 +35199,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B166" t="s">
         <v>98</v>
@@ -35211,10 +35211,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B167" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35223,10 +35223,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>929</v>
+      </c>
+      <c r="B168" t="s">
         <v>930</v>
-      </c>
-      <c r="B168" t="s">
-        <v>931</v>
       </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35235,10 +35235,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="B169" s="25" t="s">
         <v>934</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>935</v>
       </c>
       <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35247,10 +35247,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B170" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G170" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35259,10 +35259,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B171" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="2"/>
@@ -40632,7 +40632,7 @@
     <cfRule type="duplicateValues" dxfId="771" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
-    <cfRule type="duplicateValues" dxfId="0" priority="2690"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="2690"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40816,7 +40816,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -42237,10 +42237,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -42253,10 +42253,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>767</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -42269,10 +42269,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -42285,10 +42285,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>771</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>772</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -42301,10 +42301,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="B103" s="17" t="s">
         <v>789</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>790</v>
       </c>
       <c r="G103" s="4" t="str">
         <f>IF(A103&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A103&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A103&amp;CHAR(34)&amp;"));","")</f>
@@ -42313,54 +42313,54 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B104" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="G104" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="B105" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="G105" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="B106" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="G106" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="B107" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="G107" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="B108" s="17" t="s">
         <v>830</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>831</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" ref="G108:G133" si="2">IF(A108&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;"));","")</f>
@@ -42369,10 +42369,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="B109" s="17" t="s">
         <v>834</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>835</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42381,10 +42381,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="B110" s="17" t="s">
         <v>836</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>837</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42393,10 +42393,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>852</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>853</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42405,10 +42405,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="B112" s="22" t="s">
         <v>875</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>876</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42417,10 +42417,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="B113" s="22" t="s">
         <v>877</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>878</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42429,10 +42429,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>878</v>
+      </c>
+      <c r="B114" t="s">
         <v>879</v>
-      </c>
-      <c r="B114" t="s">
-        <v>880</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42441,10 +42441,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>881</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>882</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -42457,10 +42457,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>883</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>884</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -42473,10 +42473,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>884</v>
+      </c>
+      <c r="B117" t="s">
         <v>885</v>
-      </c>
-      <c r="B117" t="s">
-        <v>886</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42485,10 +42485,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>886</v>
+      </c>
+      <c r="B118" t="s">
         <v>887</v>
-      </c>
-      <c r="B118" t="s">
-        <v>888</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42497,10 +42497,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>888</v>
+      </c>
+      <c r="B119" t="s">
         <v>889</v>
-      </c>
-      <c r="B119" t="s">
-        <v>890</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42509,10 +42509,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>890</v>
+      </c>
+      <c r="B120" t="s">
         <v>891</v>
-      </c>
-      <c r="B120" t="s">
-        <v>892</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42521,7 +42521,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B121" t="s">
         <v>658</v>
@@ -42533,10 +42533,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>893</v>
+      </c>
+      <c r="B122" t="s">
         <v>894</v>
-      </c>
-      <c r="B122" t="s">
-        <v>895</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42545,10 +42545,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>923</v>
+      </c>
+      <c r="B123" t="s">
         <v>924</v>
-      </c>
-      <c r="B123" t="s">
-        <v>925</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42557,10 +42557,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>931</v>
+      </c>
+      <c r="B124" t="s">
         <v>932</v>
-      </c>
-      <c r="B124" t="s">
-        <v>933</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42569,10 +42569,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B125" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="2"/>
@@ -47471,397 +47471,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="770" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="769" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="768" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="767" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="766" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="765" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="764" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="763" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="762" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="761" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="760" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="759" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="758" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="757" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="756" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="755" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="754" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="753" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="752" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="751" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="750" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="749" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="748" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="747" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="746" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="745" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="744" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="743" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="742" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="741" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="740" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="739" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="738" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="737" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="736" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="735" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="734" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="733" priority="2031"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="2031"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="732" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="731" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="730" priority="2195"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="2195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B98 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="729" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="728" priority="2200"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="2200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="727" priority="2203"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="2203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B16 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="726" priority="2207"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="2207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B19 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="725" priority="2210"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="2210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B40 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="724" priority="2213"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="2213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="723" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="722" priority="2218"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="2218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="721" priority="2222"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="2222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B88 B98 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="720" priority="2225"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="2225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B91 B98 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="719" priority="2230"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="2230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A98">
-    <cfRule type="duplicateValues" dxfId="718" priority="2235"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="2235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="717" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="716" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="715" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="714" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A102">
-    <cfRule type="duplicateValues" dxfId="713" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="712" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="711" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="710" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A103">
-    <cfRule type="duplicateValues" dxfId="709" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B103 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="708" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B103 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="707" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="706" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="705" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="704" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="703" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="702" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="701" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B104 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="700" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="699" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="698" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="697" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="696" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="695" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="694" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="693" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B111 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="692" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="691" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="690" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="689" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="688" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="687" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="686" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="685" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="684" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="683" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="682" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="681" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="680" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="679" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="678" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="677" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="676" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="675" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="674" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="673" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="672" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="671" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="670" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="669" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="668" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="667" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="666" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="665" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="664" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="663" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="662" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="661" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="660" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A1048576">
-    <cfRule type="duplicateValues" dxfId="659" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="658" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="657" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="656" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="655" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="654" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="653" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="652" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="651" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="650" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="649" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="648" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="647" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="646" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="645" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="644" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="643" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="642" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="641" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="640" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47927,16 +47927,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="639" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="638" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="637" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="636" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48291,10 +48291,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>774</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -48304,10 +48304,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>776</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -48317,10 +48317,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>896</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>897</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -53559,60 +53559,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="635" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="634" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="633" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="632" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="631" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="630" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="629" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="628" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="627" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="626" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="625" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="624" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="623" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B19 A24:B1048576">
-    <cfRule type="duplicateValues" dxfId="622" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="621" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="620" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="619" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="618" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="617" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="616" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -54334,10 +54334,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -54350,10 +54350,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -54366,10 +54366,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -54382,10 +54382,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -54398,66 +54398,66 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>809</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>832</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>833</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>897</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>898</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>899</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" ref="G52:G58" si="1">IF(A52&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A52&amp;CHAR(34)&amp;");","")</f>
@@ -54466,10 +54466,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>900</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>901</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54478,10 +54478,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>902</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>903</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54490,10 +54490,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>904</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>905</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54502,10 +54502,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>906</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>907</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54514,10 +54514,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B57" t="s">
         <v>908</v>
-      </c>
-      <c r="B57" t="s">
-        <v>909</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54526,10 +54526,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>910</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>911</v>
       </c>
       <c r="G58" s="23" t="str">
         <f t="shared" si="1"/>
@@ -54538,10 +54538,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>912</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>913</v>
       </c>
       <c r="G59" s="4" t="str">
         <f>IF(A59&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A59&amp;CHAR(34)&amp;");","")</f>
@@ -54550,489 +54550,489 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="615" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="614" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="613" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="612" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="611" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="610" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="609" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="608" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="607" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="606" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="605" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="604" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="603" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="602" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="601" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="600" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="599" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="598" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="597" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="596" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="594" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="593" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="592" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="591" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="590" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="589" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="588" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="587" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="586" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="585" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B10">
-    <cfRule type="duplicateValues" dxfId="584" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="583" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="582" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="581" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="580" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="579" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="578" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="577" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="576" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="575" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="574" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="573" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B15">
-    <cfRule type="duplicateValues" dxfId="572" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="571" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="570" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="567" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="565" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="563" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="562" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="561" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="559" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="557" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="556" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="555" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="554" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="553" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="552" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="551" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="550" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="549" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="548" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="547" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="546" priority="701"/>
-    <cfRule type="duplicateValues" dxfId="545" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="701"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="544" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="543" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="542" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="541" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="540" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="539" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="538" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="537" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="536" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="535" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="534" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="533" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="532" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="531" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="530" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="529" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="528" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="527" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="526" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="525" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="524" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="522" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="521" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="520" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="519" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="518" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="517" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="516" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="515" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="513" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="512" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="511" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="510" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="508" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="507" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="506" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="505" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="503" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="502" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="501" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="500" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="499" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="498" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="497" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="496" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="495" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="494" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="493" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="492" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="491" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="490" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="489" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="488" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="487" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="486" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="485" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="484" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="483" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="482" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="481" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="480" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="479" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="478" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="477" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="476" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="475" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B35">
-    <cfRule type="duplicateValues" dxfId="474" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="473" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="472" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="471" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="470" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="469" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="468" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="467" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="466" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="465" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="464" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="463" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="462" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1:A43">
-    <cfRule type="duplicateValues" dxfId="461" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="459" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="458" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="457" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="456" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="455" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="454" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B47">
-    <cfRule type="duplicateValues" dxfId="453" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="452" priority="2240"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="2240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="451" priority="2243"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="2243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="450" priority="2244"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="449" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="448" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B49">
-    <cfRule type="duplicateValues" dxfId="447" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="446" priority="2443"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="2443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="445" priority="2449"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="2449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="444" priority="2451"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="2451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="443" priority="2457"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="2457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="442" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="441" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="440" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="439" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="438" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="437" priority="2608"/>
-    <cfRule type="duplicateValues" dxfId="436" priority="2609"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="2608"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="2609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="435" priority="2610"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="2610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="434" priority="2611"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="2611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="433" priority="2615"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="2615"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57365,1220 +57365,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="432" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="431" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="430" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="429" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="428" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="427" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="425" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="423" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="422" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="421" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="420" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="419" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="418" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="417" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="416" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="415" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="414" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="413" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="412" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="411" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="410" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="409" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="407" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="406" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="404" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="402" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="400" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="399" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="396" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="393" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="389" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="388" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="387" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="386" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="383" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="382" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="381" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="379" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="374" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="372" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="371" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="369" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="367" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="366" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="365" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="362" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="361" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="357" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="351" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="347" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="341" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="340" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="339" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="338" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="337" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="334" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="331" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="328" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="327" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="326" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="324" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="323" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="322" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="318" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="317" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="314" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="313" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="312" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="310" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="308" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="306" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="305" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="304" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="302" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="299" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="297" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="296" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="291" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="283" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="281" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="279" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="278" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="277" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="276" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="274" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="272" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="271" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="263" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="262" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="261" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="260" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="259" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="258" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="257" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="256" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="255" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="254" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="253" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="252" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="251" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="250" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="249" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="248" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="247" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="246" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="244" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="243" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="242" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="241" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="240" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="239" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="238" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="237" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="236" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="235" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="233" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="231" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="229" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="228" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="227" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="225" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="223" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="222" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="221" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="219" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="217" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="216" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="214" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="212" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="211" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="209" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="208" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="206" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="205" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="203" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="202" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="201" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="200" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="198" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="197" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="195" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="194" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="193" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="192" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="191" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="190" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="188" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="187" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="185" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="184" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="182" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="181" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="180" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="178" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="177" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="176" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="175" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="174" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="173" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="171" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="170" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="169" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="168" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="167" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="166" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="165" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="164" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="162" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="161" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="160" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="157" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="155" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="154" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="153" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="151" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="150" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="149" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="148" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="147" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="146" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="144" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="142" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="140" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="138" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="137" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="135" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="133" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="132" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="130" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="126" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="124" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="120" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="116" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="115" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="114" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="112" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="111" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="110" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="109" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="107" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="106" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="103" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="101" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="98" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="96" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="95" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="93" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="89" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="84" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="79" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="78" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="72" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="58" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="56" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="52" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="51" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="46" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="42" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="41" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="40" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="39" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -64541,7 +64541,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64629,7 +64629,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\WorkSpace_giri\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="RadioButton" sheetId="7" r:id="rId11"/>
     <sheet name="Mobile" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="944">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2856,12 +2856,18 @@
   </si>
   <si>
     <t>//div[@title="Show All Activity"]</t>
+  </si>
+  <si>
+    <t>Line_Details</t>
+  </si>
+  <si>
+    <t>//a[.='Line Details']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2939,7 +2945,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3019,11 +3025,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3068,6 +3089,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13661,7 +13683,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
@@ -32568,9 +32590,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172:G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35270,9 +35292,19 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G172" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="A172" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="26" t="str">
+        <f>IF(A172&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A172&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebButton.click("Line_Details");</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -40034,7 +40066,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A1048576">
+  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A171 A173:A1048576">
     <cfRule type="duplicateValues" dxfId="969" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
@@ -40079,7 +40111,7 @@
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
     <cfRule type="duplicateValues" dxfId="955" priority="386"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B1048576">
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B171 A173:B1048576">
     <cfRule type="duplicateValues" dxfId="954" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
@@ -40148,19 +40180,19 @@
   <conditionalFormatting sqref="A31:B35">
     <cfRule type="duplicateValues" dxfId="932" priority="805"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="931" priority="828"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="930" priority="831"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="929" priority="834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
     <cfRule type="duplicateValues" dxfId="928" priority="837"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="927" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
@@ -40184,7 +40216,7 @@
   <conditionalFormatting sqref="A65">
     <cfRule type="duplicateValues" dxfId="920" priority="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="919" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
@@ -40196,7 +40228,7 @@
   <conditionalFormatting sqref="B69">
     <cfRule type="duplicateValues" dxfId="916" priority="280"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A1048576">
+  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A171 A173:A1048576">
     <cfRule type="duplicateValues" dxfId="915" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
@@ -40253,7 +40285,7 @@
   <conditionalFormatting sqref="A94">
     <cfRule type="duplicateValues" dxfId="897" priority="249"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="896" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
@@ -40268,7 +40300,7 @@
   <conditionalFormatting sqref="A100">
     <cfRule type="duplicateValues" dxfId="892" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="891" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
@@ -40448,13 +40480,13 @@
   <conditionalFormatting sqref="A124">
     <cfRule type="duplicateValues" dxfId="832" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A1048576">
+  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A171 A173:A1048576">
     <cfRule type="duplicateValues" dxfId="831" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B1048576">
+  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B171 A173:B1048576">
     <cfRule type="duplicateValues" dxfId="830" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B168 A170:B1048576">
+  <conditionalFormatting sqref="A166:B168 A170:B171 A173:B1048576">
     <cfRule type="duplicateValues" dxfId="829" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
@@ -40472,13 +40504,13 @@
   <conditionalFormatting sqref="A129:B129">
     <cfRule type="duplicateValues" dxfId="824" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A1048576">
+  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A171 A173:A1048576">
     <cfRule type="duplicateValues" dxfId="823" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="822" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="821" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
@@ -40487,7 +40519,7 @@
   <conditionalFormatting sqref="A130:B130">
     <cfRule type="duplicateValues" dxfId="819" priority="2399"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A168 A170:A1048576">
+  <conditionalFormatting sqref="A166:A168 A170:A171 A173:A1048576">
     <cfRule type="duplicateValues" dxfId="818" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
@@ -40505,13 +40537,13 @@
   <conditionalFormatting sqref="A131:A136">
     <cfRule type="duplicateValues" dxfId="813" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B1048576">
+  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B171 A173:B1048576">
     <cfRule type="duplicateValues" dxfId="812" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="811" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A1048576">
+  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A171 A173:A1048576">
     <cfRule type="duplicateValues" dxfId="810" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
@@ -40538,7 +40570,7 @@
   <conditionalFormatting sqref="A137:A145">
     <cfRule type="duplicateValues" dxfId="802" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B1048576">
+  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B171 B173:B1048576">
     <cfRule type="duplicateValues" dxfId="801" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
@@ -40631,7 +40663,7 @@
   <conditionalFormatting sqref="B163:B165">
     <cfRule type="duplicateValues" dxfId="771" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G171 G173:G965">
     <cfRule type="duplicateValues" dxfId="770" priority="2690"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\WorkSpace_giri\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wr\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="946">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2862,6 +2862,12 @@
   </si>
   <si>
     <t>//a[.='Line Details']</t>
+  </si>
+  <si>
+    <t>OSM_Refresh1</t>
+  </si>
+  <si>
+    <t>//input[@title="Search using the current query"]</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3090,11 +3096,303 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1063">
+  <dxfs count="1092">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13684,8 +13982,8 @@
   <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20157,283 +20455,283 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1062" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1061" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1060" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1059" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1058" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1057" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1056" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1055" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1054" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1053" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1052" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1051" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1050" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1049" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1048" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1047" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1046" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1045" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1044" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1043" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1042" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1041" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1040" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1039" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1038" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1067" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1037" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1036" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1035" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1034" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1033" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1032" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1031" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1030" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1029" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1028" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1027" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1026" priority="2094"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="2094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1025" priority="2095"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="2095"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1024" priority="2096"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="2096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1023" priority="2098"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="2098"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1022" priority="2151"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="2151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1021" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="2152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1020" priority="2153"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="2153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1019" priority="2154"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="2154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1018" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1017" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1016" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1015" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1014" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1013" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1012" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1011" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1010" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1009" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1008" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1007" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="1006" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="1005" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1004" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1003" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1002" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1001" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1000" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="999" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="998" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="997" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="996" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="995" priority="2418"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="2418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="994" priority="2419"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="2419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B71">
-    <cfRule type="duplicateValues" dxfId="993" priority="2420"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="2420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B71">
-    <cfRule type="duplicateValues" dxfId="992" priority="2421"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="2421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="991" priority="2448"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="2448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="990" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="989" priority="2462"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="2462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="988" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="2469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="987" priority="2471"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="2471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="986" priority="2477"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="2477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="985" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="984" priority="2484"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="2484"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="983" priority="2487"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="2487"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576">
-    <cfRule type="duplicateValues" dxfId="982" priority="2490"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="2490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="981" priority="2492"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="2492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B57 A75:B1048576 A59:B71 A58">
-    <cfRule type="duplicateValues" dxfId="980" priority="2495"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="979" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="978" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="977" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="976" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="975" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="974" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="973" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="972" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="971" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="970" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -26487,16 +26785,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32534,7 +32832,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32579,7 +32877,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32588,11 +32886,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G965"/>
+  <dimension ref="A1:G966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172:G172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33697,7 +33995,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="10"/>
       <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G131" si="1">IF(A68&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A68&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G68:G132" si="1">IF(A68&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A68&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("GO");</v>
       </c>
     </row>
@@ -34040,27 +34338,27 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="A90" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>945</v>
+      </c>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
       <c r="G90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OSM_Search");</v>
+        <v>Browser.WebButton.click("OSM_Refresh1");</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -34068,15 +34366,15 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OSM_Update");</v>
+        <v>Browser.WebButton.click("OSM_Search");</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -34084,15 +34382,15 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OSM_Dropdown");</v>
+        <v>Browser.WebButton.click("OSM_Update");</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>500</v>
+      <c r="A93" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -34100,15 +34398,15 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OSM_Query_search");</v>
+        <v>Browser.WebButton.click("OSM_Dropdown");</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -34116,15 +34414,15 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OSM_Logout");</v>
+        <v>Browser.WebButton.click("OSM_Query_search");</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -34132,15 +34430,15 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("ContactQuery");</v>
+        <v>Browser.WebButton.click("OSM_Logout");</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>533</v>
+      <c r="A96" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -34148,15 +34446,15 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Contact_Go");</v>
+        <v>Browser.WebButton.click("ContactQuery");</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -34164,15 +34462,15 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Asset_SIMSwap");</v>
+        <v>Browser.WebButton.click("Contact_Go");</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -34180,15 +34478,15 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("S_Continue");</v>
+        <v>Browser.WebButton.click("Asset_SIMSwap");</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>546</v>
+      <c r="A99" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -34196,15 +34494,15 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Submit_SimSwap");</v>
+        <v>Browser.WebButton.click("S_Continue");</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -34212,15 +34510,15 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("UpgradePromotion");</v>
+        <v>Browser.WebButton.click("Submit_SimSwap");</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -34228,15 +34526,15 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Account_360_view");</v>
+        <v>Browser.WebButton.click("UpgradePromotion");</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -34244,15 +34542,15 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Contact_Error");</v>
+        <v>Browser.WebButton.click("Account_360_view");</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -34260,15 +34558,15 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OrderQuery");</v>
+        <v>Browser.WebButton.click("Contact_Error");</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -34276,15 +34574,15 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("AddPayment");</v>
+        <v>Browser.WebButton.click("OrderQuery");</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -34292,15 +34590,15 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("RTB_Check_Button");</v>
+        <v>Browser.WebButton.click("AddPayment");</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -34308,15 +34606,15 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Global_Back");</v>
+        <v>Browser.WebButton.click("RTB_Check_Button");</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -34324,15 +34622,15 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("ThirdLevelView");</v>
+        <v>Browser.WebButton.click("Global_Back");</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -34340,15 +34638,15 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CreditScore");</v>
+        <v>Browser.WebButton.click("ThirdLevelView");</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -34356,15 +34654,15 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("New_Job");</v>
+        <v>Browser.WebButton.click("CreditScore");</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -34372,15 +34670,15 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("JobParameters");</v>
+        <v>Browser.WebButton.click("New_Job");</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -34388,15 +34686,15 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("SubmitJob");</v>
+        <v>Browser.WebButton.click("JobParameters");</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -34404,15 +34702,15 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Password_Submit");</v>
+        <v>Browser.WebButton.click("SubmitJob");</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -34420,15 +34718,15 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CreditQuery");</v>
+        <v>Browser.WebButton.click("Password_Submit");</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -34436,15 +34734,15 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CreditAlert");</v>
+        <v>Browser.WebButton.click("CreditQuery");</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -34452,15 +34750,15 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CredetitAlertQuery");</v>
+        <v>Browser.WebButton.click("CreditAlert");</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -34468,15 +34766,15 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CredetitAlertGO");</v>
+        <v>Browser.WebButton.click("CredetitAlertQuery");</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>226</v>
+        <v>681</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -34484,15 +34782,15 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("OSM_Query");</v>
+        <v>Browser.WebButton.click("CredetitAlertGO");</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>698</v>
+        <v>226</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -34500,15 +34798,15 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("SD_Query");</v>
+        <v>Browser.WebButton.click("OSM_Query");</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -34516,15 +34814,15 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("SD_Go");</v>
+        <v>Browser.WebButton.click("SD_Query");</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -34532,15 +34830,15 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Rowcounter_next");</v>
+        <v>Browser.WebButton.click("SD_Go");</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>704</v>
+      <c r="A121" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -34548,15 +34846,15 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("UnbilledUsage_Button");</v>
+        <v>Browser.WebButton.click("Rowcounter_next");</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>706</v>
+      <c r="A122" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -34564,15 +34862,15 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Ent_Notification");</v>
+        <v>Browser.WebButton.click("UnbilledUsage_Button");</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -34580,15 +34878,15 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Ent_Not_Ok");</v>
+        <v>Browser.WebButton.click("Ent_Notification");</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>711</v>
+        <v>708</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -34596,15 +34894,15 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CreditAlert_ShowMore");</v>
+        <v>Browser.WebButton.click("Ent_Not_Ok");</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>712</v>
+      <c r="A125" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -34612,15 +34910,15 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Scroll_Left");</v>
+        <v>Browser.WebButton.click("CreditAlert_ShowMore");</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -34628,15 +34926,15 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("NextRecord");</v>
+        <v>Browser.WebButton.click("Scroll_Left");</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -34644,15 +34942,15 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("CreditAlert_Menu");</v>
+        <v>Browser.WebButton.click("NextRecord");</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>762</v>
+        <v>717</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>763</v>
+        <v>716</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -34660,15 +34958,15 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Bill_acc_add");</v>
+        <v>Browser.WebButton.click("CreditAlert_Menu");</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -34676,15 +34974,15 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("SpendLimit");</v>
+        <v>Browser.WebButton.click("Bill_acc_add");</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -34692,15 +34990,15 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Billing_Prof");</v>
+        <v>Browser.WebButton.click("SpendLimit");</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -34708,47 +35006,47 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Browser.WebButton.click("Scroll_Right_Acc360");</v>
+        <v>Browser.WebButton.click("Billing_Prof");</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>615</v>
+        <v>792</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>616</v>
+        <v>793</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="str">
-        <f t="shared" ref="G132:G194" si="2">IF(A132&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;");","")</f>
-        <v>Browser.WebButton.click("SMS");</v>
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Scroll_Right_Acc360");</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("view_bills");</v>
+        <f t="shared" ref="G133:G195" si="2">IF(A133&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A133&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebButton.click("SMS");</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -34756,15 +35054,15 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Voice");</v>
+        <v>Browser.WebButton.click("view_bills");</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -34772,15 +35070,15 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Data");</v>
+        <v>Browser.WebButton.click("Voice");</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -34788,15 +35086,15 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Recharge");</v>
+        <v>Browser.WebButton.click("Data");</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -34804,15 +35102,15 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("All");</v>
+        <v>Browser.WebButton.click("Recharge");</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>813</v>
+        <v>619</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>814</v>
+        <v>620</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -34820,15 +35118,15 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("NewActivity");</v>
+        <v>Browser.WebButton.click("All");</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -34836,15 +35134,15 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Service_OK");</v>
+        <v>Browser.WebButton.click("NewActivity");</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>154</v>
+        <v>815</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -34852,15 +35150,15 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Date_Now");</v>
+        <v>Browser.WebButton.click("Service_OK");</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -34868,15 +35166,15 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Date_Done");</v>
+        <v>Browser.WebButton.click("Date_Now");</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>819</v>
+        <v>156</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -34884,15 +35182,15 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Activity_Query");</v>
+        <v>Browser.WebButton.click("Date_Done");</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -34900,15 +35198,15 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Activity_Popup1");</v>
+        <v>Browser.WebButton.click("Activity_Query");</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -34916,15 +35214,15 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Activity_Popup2");</v>
+        <v>Browser.WebButton.click("Activity_Popup1");</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -34932,15 +35230,15 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Activity_GO");</v>
+        <v>Browser.WebButton.click("Activity_Popup2");</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -34948,15 +35246,15 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("OSM_Changestate");</v>
+        <v>Browser.WebButton.click("Activity_GO");</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -34964,15 +35262,15 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("OSM_Accepted");</v>
+        <v>Browser.WebButton.click("OSM_Changestate");</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -34980,15 +35278,15 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("OSM_Assigned");</v>
+        <v>Browser.WebButton.click("OSM_Accepted");</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -34996,15 +35294,15 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("OSM_Pearl_Update");</v>
+        <v>Browser.WebButton.click("OSM_Assigned");</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -35012,15 +35310,15 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("OSM_Completed");</v>
+        <v>Browser.WebButton.click("OSM_Pearl_Update");</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -35028,15 +35326,15 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Apn_Add");</v>
+        <v>Browser.WebButton.click("OSM_Completed");</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -35044,15 +35342,15 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Static_ok");</v>
+        <v>Browser.WebButton.click("Apn_Add");</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="B153" t="s">
-        <v>856</v>
+        <v>849</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>850</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -35060,31 +35358,31 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Payments_Editable");</v>
+        <v>Browser.WebButton.click("Static_ok");</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="21" t="s">
-        <v>857</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
+      <c r="A154" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="B154" t="s">
+        <v>856</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
       <c r="G154" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_Submit");</v>
+        <v>Browser.WebButton.click("Payments_Editable");</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -35092,15 +35390,15 @@
       <c r="F155" s="20"/>
       <c r="G155" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_Batch");</v>
+        <v>Browser.WebButton.click("PJM_Submit");</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -35108,209 +35406,219 @@
       <c r="F156" s="20"/>
       <c r="G156" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_CreateBatch");</v>
+        <v>Browser.WebButton.click("PJM_Batch");</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>864</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
       <c r="G157" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_UploadBatch");</v>
+        <v>Browser.WebButton.click("PJM_CreateBatch");</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="B158" t="s">
-        <v>866</v>
+        <v>863</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>864</v>
       </c>
       <c r="G158" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_ISTestRun");</v>
+        <v>Browser.WebButton.click("PJM_UploadBatch");</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>857</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>867</v>
+      <c r="A159" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="B159" t="s">
+        <v>866</v>
       </c>
       <c r="G159" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_Submit");</v>
+        <v>Browser.WebButton.click("PJM_ISTestRun");</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>868</v>
-      </c>
-      <c r="B160" t="s">
-        <v>869</v>
+        <v>857</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>867</v>
       </c>
       <c r="G160" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_Ok");</v>
+        <v>Browser.WebButton.click("PJM_Submit");</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B161" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G161" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_Refresh");</v>
+        <v>Browser.WebButton.click("PJM_Ok");</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B162" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G162" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("PJM_LogOut");</v>
+        <v>Browser.WebButton.click("PJM_Refresh");</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>917</v>
+        <v>872</v>
       </c>
       <c r="B163" t="s">
-        <v>918</v>
+        <v>873</v>
       </c>
       <c r="G163" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Cancel_Order");</v>
+        <v>Browser.WebButton.click("PJM_LogOut");</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B164" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G164" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Acc_Order_Query");</v>
+        <v>Browser.WebButton.click("Cancel_Order");</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B165" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G165" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Acc_Order_GO");</v>
+        <v>Browser.WebButton.click("Acc_Order_Query");</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>922</v>
       </c>
       <c r="G166" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Acc_Installed_Show");</v>
+        <v>Browser.WebButton.click("Acc_Order_GO");</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B167" t="s">
-        <v>926</v>
+        <v>98</v>
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Acc_Installed_Less");</v>
+        <v>Browser.WebButton.click("Acc_Installed_Show");</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B168" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Cont_MoiValidation");</v>
+        <v>Browser.WebButton.click("Acc_Installed_Less");</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="25" t="s">
-        <v>933</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>934</v>
+      <c r="A169" t="s">
+        <v>929</v>
+      </c>
+      <c r="B169" t="s">
+        <v>930</v>
       </c>
       <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Manage_Add_On");</v>
+        <v>Browser.WebButton.click("Cont_MoiValidation");</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>938</v>
-      </c>
-      <c r="B170" t="s">
-        <v>935</v>
+      <c r="A170" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="B170" s="25" t="s">
+        <v>934</v>
       </c>
       <c r="G170" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Promotion_Query");</v>
+        <v>Browser.WebButton.click("Manage_Add_On");</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B171" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("Promotion_Query");</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>939</v>
+      </c>
+      <c r="B172" t="s">
+        <v>937</v>
+      </c>
+      <c r="G172" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>Browser.WebButton.click("Promotion_Go");</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B173" s="20" t="s">
         <v>943</v>
       </c>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="26" t="str">
-        <f>IF(A172&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A172&amp;CHAR(34)&amp;");","")</f>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="26" t="str">
+        <f>IF(A173&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A173&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Line_Details");</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G173" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -35441,13 +35749,13 @@
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" s="4" t="str">
-        <f t="shared" ref="G195:G258" si="3">IF(A195&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A195&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G196" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G196:G259" si="3">IF(A196&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A196&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -35825,13 +36133,13 @@
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" s="4" t="str">
-        <f t="shared" ref="G259:G322" si="4">IF(A259&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A259&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G260:G323" si="4">IF(A260&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A260&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -36209,13 +36517,13 @@
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G323" s="4" t="str">
-        <f t="shared" ref="G323:G386" si="5">IF(A323&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A323&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G324" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G324:G387" si="5">IF(A324&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A324&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -36593,13 +36901,13 @@
     </row>
     <row r="387" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G387" s="4" t="str">
-        <f t="shared" ref="G387:G450" si="6">IF(A387&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A387&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G388" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G388:G451" si="6">IF(A388&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A388&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -36977,13 +37285,13 @@
     </row>
     <row r="451" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G451" s="4" t="str">
-        <f t="shared" ref="G451:G514" si="7">IF(A451&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A451&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G452" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G452:G515" si="7">IF(A452&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A452&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -37361,13 +37669,13 @@
     </row>
     <row r="515" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G515" s="4" t="str">
-        <f t="shared" ref="G515:G578" si="8">IF(A515&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A515&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G516" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G516:G579" si="8">IF(A516&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A516&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -37745,13 +38053,13 @@
     </row>
     <row r="579" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G579" s="4" t="str">
-        <f t="shared" ref="G579:G642" si="9">IF(A579&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A579&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G580" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G580:G643" si="9">IF(A580&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A580&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -38129,13 +38437,13 @@
     </row>
     <row r="643" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G643" s="4" t="str">
-        <f t="shared" ref="G643:G706" si="10">IF(A643&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A643&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="644" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G644" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G644:G707" si="10">IF(A644&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A644&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -38513,13 +38821,13 @@
     </row>
     <row r="707" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G707" s="4" t="str">
-        <f t="shared" ref="G707:G770" si="11">IF(A707&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A707&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="708" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G708" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G708:G771" si="11">IF(A708&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A708&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -38897,13 +39205,13 @@
     </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="4" t="str">
-        <f t="shared" ref="G771:G834" si="12">IF(A771&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A771&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="772" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G772" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G772:G835" si="12">IF(A772&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A772&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -39281,13 +39589,13 @@
     </row>
     <row r="835" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G835" s="4" t="str">
-        <f t="shared" ref="G835:G898" si="13">IF(A835&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A835&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="836" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G836" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G836:G899" si="13">IF(A836&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A836&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -39665,13 +39973,13 @@
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G899" s="4" t="str">
-        <f t="shared" ref="G899:G962" si="14">IF(A899&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A899&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="900" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G900" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G900:G963" si="14">IF(A900&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A900&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -40049,13 +40357,13 @@
     </row>
     <row r="963" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G963" s="4" t="str">
-        <f t="shared" ref="G963:G965" si="15">IF(A963&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A963&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="964" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G964" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G964:G966" si="15">IF(A964&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A964&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
@@ -40065,606 +40373,654 @@
         <v/>
       </c>
     </row>
+    <row r="966" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G966" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A171 A173:A1048576">
-    <cfRule type="duplicateValues" dxfId="969" priority="429"/>
+  <conditionalFormatting sqref="A96:A100 A49 A1:A2 A66 A14 A167:A169 A171:A172 A174:A1048576">
+    <cfRule type="duplicateValues" dxfId="998" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="968" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="436"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="967" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="435"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="966" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="965" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="964" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="963" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="962" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="961" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="960" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="959" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="958" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="957" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="956" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="955" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B171 A173:B1048576">
-    <cfRule type="duplicateValues" dxfId="954" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:B100 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A167:B169 A171:B172 A174:B1048576">
+    <cfRule type="duplicateValues" dxfId="983" priority="399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="953" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="952" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="951" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="950" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="949" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="948" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="947" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="946" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="945" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="944" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="943" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="942" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="941" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="940" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="939" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="938" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="937" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="936" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="935" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="934" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="933" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="817"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="932" priority="805"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="931" priority="828"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="930" priority="831"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="929" priority="834"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="819"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B100 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B167:B169 B171:B172 B174:B1048576">
+    <cfRule type="duplicateValues" dxfId="960" priority="842"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B100 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B167:B169 B171:B172 B174:B1048576">
+    <cfRule type="duplicateValues" dxfId="959" priority="845"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B100 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B167:B169 B171:B172 B174:B1048576">
+    <cfRule type="duplicateValues" dxfId="958" priority="848"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="928" priority="837"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="927" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="851"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B100 B46:B49 B66:B67 B167:B169 B171:B172 B174:B1048576">
+    <cfRule type="duplicateValues" dxfId="956" priority="855"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="926" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="925" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="924" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="923" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="922" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="921" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="920" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="919" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="315"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B100 B1:B17 B20:B26 B28:B67 B167:B169 B171:B172 B174:B1048576">
+    <cfRule type="duplicateValues" dxfId="948" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="918" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="917" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="916" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A171 A173:A1048576">
-    <cfRule type="duplicateValues" dxfId="915" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A100 A1:A86 A167:A169 A171:A172 A174:A1048576">
+    <cfRule type="duplicateValues" dxfId="944" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="914" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="1299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="913" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="1302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="912" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="1306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="911" priority="270"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="910" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95 A87:B87">
+    <cfRule type="duplicateValues" dxfId="939" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="909" priority="268"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="908" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95 B87">
+    <cfRule type="duplicateValues" dxfId="937" priority="281"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="duplicateValues" dxfId="936" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="935" priority="275"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:B93 B89 B91:B92">
+    <cfRule type="duplicateValues" dxfId="934" priority="274"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89 B91:B93">
+    <cfRule type="duplicateValues" dxfId="933" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:A89 A91:A92">
+    <cfRule type="duplicateValues" dxfId="932" priority="270"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="931" priority="269"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="930" priority="268"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:B94">
+    <cfRule type="duplicateValues" dxfId="929" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="907" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="906" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="905" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="904" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="903" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="902" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="901" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="900" priority="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="899" priority="251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="898" priority="250"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="897" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="896" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="895" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="894" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="893" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="892" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="891" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="265"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="927" priority="264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="926" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B169 B1:B17 B20:B26 B28:B89 B171:B172 B174:B1048576 B91:B100">
+    <cfRule type="duplicateValues" dxfId="925" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="890" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="889" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="888" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="887" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B169 B1:B17 B20:B26 B28:B89 B171:B172 B174:B1048576 B91:B101">
+    <cfRule type="duplicateValues" dxfId="920" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="886" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="885" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="884" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="883" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="882" priority="1833"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="881" priority="1835"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="duplicateValues" dxfId="915" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:B103">
+    <cfRule type="duplicateValues" dxfId="914" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="913" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="duplicateValues" dxfId="912" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="911" priority="1847"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A103">
+    <cfRule type="duplicateValues" dxfId="910" priority="1849"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="880" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="879" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="878" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="877" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="876" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="875" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="874" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="873" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="872" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="871" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="870" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="869" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="868" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="867" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="866" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="865" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="864" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="863" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="862" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="861" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="860" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="859" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="858" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="857" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="856" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="855" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="854" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="853" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="852" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="851" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="850" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="849" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="848" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="847" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="846" priority="2102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="845" priority="2103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="844" priority="2104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="843" priority="2109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="842" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="841" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="840" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="839" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="838" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="837" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="836" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="835" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="834" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="833" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="832" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A171 A173:A1048576">
-    <cfRule type="duplicateValues" dxfId="831" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B171 A173:B1048576">
-    <cfRule type="duplicateValues" dxfId="830" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B168 A170:B171 A173:B1048576">
-    <cfRule type="duplicateValues" dxfId="829" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="828" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A117">
+    <cfRule type="duplicateValues" dxfId="879" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:B117">
+    <cfRule type="duplicateValues" dxfId="878" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B117">
+    <cfRule type="duplicateValues" dxfId="877" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A117">
+    <cfRule type="duplicateValues" dxfId="876" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A120">
+    <cfRule type="duplicateValues" dxfId="875" priority="2116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:B120">
+    <cfRule type="duplicateValues" dxfId="874" priority="2117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118:B120">
+    <cfRule type="duplicateValues" dxfId="873" priority="2118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A120">
+    <cfRule type="duplicateValues" dxfId="872" priority="2123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A122 A124">
+    <cfRule type="duplicateValues" dxfId="871" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:B122 A124:B124">
+    <cfRule type="duplicateValues" dxfId="870" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B122 B124">
+    <cfRule type="duplicateValues" dxfId="869" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A122 A124">
+    <cfRule type="duplicateValues" dxfId="868" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="867" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="866" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:B123">
+    <cfRule type="duplicateValues" dxfId="865" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="duplicateValues" dxfId="864" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A127">
+    <cfRule type="duplicateValues" dxfId="863" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="862" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="861" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A169 A1:A89 A171:A172 A174:A1048576 A91:A127">
+    <cfRule type="duplicateValues" dxfId="860" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:B169 A1:B89 A171:B172 A174:B1048576 A91:B127">
+    <cfRule type="duplicateValues" dxfId="859" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:B169 A171:B172 A174:B1048576">
+    <cfRule type="duplicateValues" dxfId="858" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="827" priority="2260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="826" priority="2262"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="825" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="2274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="824" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A171 A173:A1048576">
-    <cfRule type="duplicateValues" dxfId="823" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="822" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="821" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="2276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="820" priority="2398"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="819" priority="2399"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A168 A170:A171 A173:A1048576">
-    <cfRule type="duplicateValues" dxfId="818" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="817" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="816" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="815" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="814" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="813" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B171 A173:B1048576">
-    <cfRule type="duplicateValues" dxfId="812" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="811" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A171 A173:A1048576">
-    <cfRule type="duplicateValues" dxfId="810" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="809" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="808" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="807" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="806" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="805" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="804" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="803" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="802" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B171 B173:B1048576">
-    <cfRule type="duplicateValues" dxfId="801" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="800" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="799" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="798" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="797" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="796" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="795" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="794" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="793" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="792" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="791" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="790" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="789" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="788" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="787" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="786" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="785" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="784" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="783" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="782" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A169 A1:A89 A171:A172 A174:A1048576 A91:A131">
+    <cfRule type="duplicateValues" dxfId="852" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="duplicateValues" dxfId="851" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B169 B1:B89 B171:B172 B174:B1048576 B91:B131">
+    <cfRule type="duplicateValues" dxfId="850" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="849" priority="2412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131:B131">
+    <cfRule type="duplicateValues" dxfId="848" priority="2413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A169 A171:A172 A174:A1048576">
+    <cfRule type="duplicateValues" dxfId="847" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:A137">
+    <cfRule type="duplicateValues" dxfId="846" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:B137">
+    <cfRule type="duplicateValues" dxfId="845" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:A137">
+    <cfRule type="duplicateValues" dxfId="844" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132:B137">
+    <cfRule type="duplicateValues" dxfId="843" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:A137">
+    <cfRule type="duplicateValues" dxfId="842" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:B169 A1:B89 A171:B172 A174:B1048576 A91:B137">
+    <cfRule type="duplicateValues" dxfId="841" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B169 B1:B89 B171:B172 B174:B1048576 B91:B137">
+    <cfRule type="duplicateValues" dxfId="840" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A169 A1:A89 A171:A172 A174:A1048576 A91:A137">
+    <cfRule type="duplicateValues" dxfId="839" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A146">
+    <cfRule type="duplicateValues" dxfId="838" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:B146">
+    <cfRule type="duplicateValues" dxfId="837" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A146">
+    <cfRule type="duplicateValues" dxfId="836" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138:B146">
+    <cfRule type="duplicateValues" dxfId="835" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A146">
+    <cfRule type="duplicateValues" dxfId="834" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:B146">
+    <cfRule type="duplicateValues" dxfId="833" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138:B146">
+    <cfRule type="duplicateValues" dxfId="832" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A146">
+    <cfRule type="duplicateValues" dxfId="831" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B169 B1:B89 B171:B172 B174:B1048576 B91:B146">
+    <cfRule type="duplicateValues" dxfId="830" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A153">
+    <cfRule type="duplicateValues" dxfId="829" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:B153">
+    <cfRule type="duplicateValues" dxfId="828" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A153">
+    <cfRule type="duplicateValues" dxfId="827" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147:B153">
+    <cfRule type="duplicateValues" dxfId="826" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A153">
+    <cfRule type="duplicateValues" dxfId="825" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:B153">
+    <cfRule type="duplicateValues" dxfId="824" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147:B153">
+    <cfRule type="duplicateValues" dxfId="823" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A153">
+    <cfRule type="duplicateValues" dxfId="822" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147:B153">
+    <cfRule type="duplicateValues" dxfId="821" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162 A158:A159">
+    <cfRule type="duplicateValues" dxfId="820" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:B162 A158:B158 B154 A159 B160:B161 B163">
+    <cfRule type="duplicateValues" dxfId="819" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162 A158:A159">
+    <cfRule type="duplicateValues" dxfId="818" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="781" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:B162">
+    <cfRule type="duplicateValues" dxfId="816" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:B162">
+    <cfRule type="duplicateValues" dxfId="815" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="780" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="779" priority="2578"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="778" priority="2602"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="777" priority="2603"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163:G165">
-    <cfRule type="duplicateValues" dxfId="776" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="775" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="774" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="773" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="772" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="771" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G171 G173:G965">
-    <cfRule type="duplicateValues" dxfId="770" priority="2690"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154">
+    <cfRule type="duplicateValues" dxfId="813" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154">
+    <cfRule type="duplicateValues" dxfId="812" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:B162 A158:B158 A154:B154 A159 B160:B161 B163">
+    <cfRule type="duplicateValues" dxfId="811" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163">
+    <cfRule type="duplicateValues" dxfId="810" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163">
+    <cfRule type="duplicateValues" dxfId="809" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158 B154 B160:B163">
+    <cfRule type="duplicateValues" dxfId="808" priority="2592"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:A161">
+    <cfRule type="duplicateValues" dxfId="807" priority="2616"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:A161">
+    <cfRule type="duplicateValues" dxfId="806" priority="2617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G164:G166">
+    <cfRule type="duplicateValues" dxfId="805" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164:B166">
+    <cfRule type="duplicateValues" dxfId="804" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164:B166">
+    <cfRule type="duplicateValues" dxfId="803" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164:A166">
+    <cfRule type="duplicateValues" dxfId="802" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164:A166">
+    <cfRule type="duplicateValues" dxfId="801" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164:B166">
+    <cfRule type="duplicateValues" dxfId="800" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F89 G3:G163 G167:G172 G174:G966 A91:F97 C90:G90">
+    <cfRule type="duplicateValues" dxfId="799" priority="2704"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:B90">
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:B90">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:B90">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40676,8 +41032,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G940"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
@@ -47503,397 +47859,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="769" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="768" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="767" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="766" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="765" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="764" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="763" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="762" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="761" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="760" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="759" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="758" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="757" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="756" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="755" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="754" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="753" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="752" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="751" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="750" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="749" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="748" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="747" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="746" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="745" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="744" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="743" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="742" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="741" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="740" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="739" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="738" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="737" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="736" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="735" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="734" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="733" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="732" priority="2031"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="2031"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="731" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="730" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="729" priority="2195"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="2195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B98 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="728" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="727" priority="2200"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="2200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="726" priority="2203"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="2203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B16 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="725" priority="2207"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="2207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B19 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="724" priority="2210"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="2210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B40 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="723" priority="2213"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="2213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="722" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="721" priority="2218"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="2218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="720" priority="2222"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="2222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B88 B98 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="719" priority="2225"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="2225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B91 B98 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="718" priority="2230"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="2230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A98">
-    <cfRule type="duplicateValues" dxfId="717" priority="2235"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="2235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="716" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="715" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="714" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="713" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A102">
-    <cfRule type="duplicateValues" dxfId="712" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="711" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="710" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="709" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A103">
-    <cfRule type="duplicateValues" dxfId="708" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B103 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="707" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B103 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="706" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="705" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="704" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="703" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="702" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="701" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="700" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B104 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="699" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="698" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="697" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="696" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="695" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="694" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="693" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="692" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B111 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="691" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="690" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="689" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="688" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="687" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="686" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="685" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="684" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="683" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="682" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="681" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="680" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="679" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="678" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="677" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="676" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="675" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="674" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="673" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="672" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="671" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="670" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="669" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="668" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="667" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="666" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="665" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="664" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="663" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="662" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="661" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="660" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="659" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A1048576">
-    <cfRule type="duplicateValues" dxfId="658" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="657" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="656" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="655" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="654" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="653" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="652" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="651" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="650" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="649" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="648" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="647" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="646" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="645" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="644" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="643" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="642" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="641" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="640" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="639" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47959,16 +48315,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="638" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="637" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="636" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="635" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53591,60 +53947,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="634" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="633" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="632" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="631" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="630" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="629" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="628" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="627" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="626" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="625" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="624" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="623" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="622" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B19 A24:B1048576">
-    <cfRule type="duplicateValues" dxfId="621" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="620" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="619" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="618" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="617" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="616" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="615" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -54582,489 +54938,489 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="614" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="613" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="611" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="610" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="608" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="607" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="605" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="604" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="602" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="595" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="594" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="593" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="592" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="591" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="590" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="589" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="588" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="587" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="586" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="585" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="584" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B10">
-    <cfRule type="duplicateValues" dxfId="583" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="582" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="581" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="580" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="579" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="577" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="576" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="575" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="574" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="573" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="572" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B15">
-    <cfRule type="duplicateValues" dxfId="571" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="570" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="569" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="568" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="567" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="566" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="565" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="564" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="563" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="560" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="559" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="558" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="557" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="556" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="555" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="554" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="553" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="552" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="551" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="550" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="549" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="548" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="547" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="546" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="545" priority="701"/>
-    <cfRule type="duplicateValues" dxfId="544" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="701"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="543" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="542" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="541" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="540" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="539" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="538" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="536" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="535" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="534" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="533" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="532" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="530" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="529" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="528" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="526" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="525" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="524" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="523" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="522" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="521" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="520" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="519" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="518" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="517" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="516" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="515" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="514" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="513" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="512" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="511" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="509" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="508" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="507" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="506" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="505" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="504" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="503" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="502" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="501" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="500" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="499" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="498" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="497" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="496" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="495" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="494" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="492" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="491" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="490" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="489" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="488" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="487" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="486" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="485" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="484" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="483" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="482" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="481" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="480" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="479" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="478" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="477" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="476" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="475" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="474" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B35">
-    <cfRule type="duplicateValues" dxfId="473" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="472" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="471" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="470" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="469" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="468" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="467" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="466" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="465" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="464" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="463" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="462" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="461" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1:A43">
-    <cfRule type="duplicateValues" dxfId="460" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="459" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="458" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="457" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="456" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="455" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="454" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="453" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B47">
-    <cfRule type="duplicateValues" dxfId="452" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="451" priority="2240"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="2240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="450" priority="2243"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="2243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="449" priority="2244"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="448" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="447" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B49">
-    <cfRule type="duplicateValues" dxfId="446" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="445" priority="2443"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="2443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="444" priority="2449"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="2449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="443" priority="2451"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="2451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="442" priority="2457"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="2457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="440" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="439" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="438" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="437" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="436" priority="2608"/>
-    <cfRule type="duplicateValues" dxfId="435" priority="2609"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="2608"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="2609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="434" priority="2610"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="2610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="433" priority="2611"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="2611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="432" priority="2615"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="2615"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57397,1220 +57753,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -64573,7 +64929,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64661,7 +65017,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
